--- a/data/配置表.xlsx
+++ b/data/配置表.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="州配置表" sheetId="1" r:id="rId1"/>
+    <sheet name="虞姬之爱配置表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="209">
   <si>
     <t>河东</t>
   </si>
@@ -609,10 +610,6 @@
   </si>
   <si>
     <t>province</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>city</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -741,6 +738,30 @@
   </si>
   <si>
     <t>pid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeCount</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>inc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1165,7 +1186,7 @@
   <dimension ref="A1:L178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1178,7 +1199,7 @@
         <v>179</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>180</v>
@@ -1216,34 +1237,34 @@
         <v>192</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -7936,4 +7957,194 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>99</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>499</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1999</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4999</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>9999</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>10809</v>
+      </c>
+      <c r="D8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>13239</v>
+      </c>
+      <c r="D9">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>15669</v>
+      </c>
+      <c r="D10">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>18099</v>
+      </c>
+      <c r="D11">
+        <v>1280</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>